--- a/data/trans_orig/P36BPD01_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD01_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A30F9EA-DB76-4789-946E-9136F8CE3CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E4CEB5-2CE9-4412-90BB-2B3AFB01A26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B3CF10E6-61A9-4A84-8652-DBE1D2C53FAB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A076DE4-1BD7-49A8-8193-D0D47D477511}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>92,3%</t>
   </si>
   <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>94,24%</t>
   </si>
   <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>93,25%</t>
   </si>
   <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>7,7%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,49 +137,49 @@
     <t>95,42%</t>
   </si>
   <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>96,77%</t>
   </si>
   <si>
     <t>95,16%</t>
   </si>
   <si>
-    <t>96,67%</t>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>3,23%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>3,33%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -188,100 +188,106 @@
     <t>93,19%</t>
   </si>
   <si>
-    <t>90,54%</t>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
   </si>
   <si>
     <t>95,17%</t>
   </si>
   <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>5,9%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -290,154 +296,148 @@
     <t>96,15%</t>
   </si>
   <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>95,87%</t>
   </si>
   <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>96,01%</t>
   </si>
   <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
   </si>
   <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>65 y más</t>
   </si>
   <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
+    <t>4,29%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>2,58%</t>
   </si>
   <si>
     <t>95,01%</t>
   </si>
   <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
   </si>
   <si>
     <t>95,23%</t>
   </si>
   <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -852,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B4076E-C23F-4201-AEED-256F23E39512}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D06005E-18A0-4608-A0D3-D6CE8B6A48BF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1149,10 +1149,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>707</v>
@@ -1161,10 +1161,10 @@
         <v>879660</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>39</v>
@@ -1203,7 +1203,7 @@
         <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>52</v>
@@ -1212,13 +1212,13 @@
         <v>44788</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1307,7 +1307,7 @@
         <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>1292</v>
@@ -1316,13 +1316,13 @@
         <v>1064451</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1337,13 +1337,13 @@
         <v>37745</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>52</v>
@@ -1352,13 +1352,13 @@
         <v>35614</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -1367,13 +1367,13 @@
         <v>73359</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1429,7 +1429,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1441,13 +1441,13 @@
         <v>683814</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>1080</v>
@@ -1456,13 +1456,13 @@
         <v>711971</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>1702</v>
@@ -1471,13 +1471,13 @@
         <v>1395785</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,13 +1492,13 @@
         <v>36763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -1507,13 +1507,13 @@
         <v>34070</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>99</v>
@@ -1522,13 +1522,13 @@
         <v>70833</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,7 +1584,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1596,13 +1596,13 @@
         <v>573861</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>959</v>
@@ -1611,13 +1611,13 @@
         <v>571751</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>1593</v>
@@ -1626,13 +1626,13 @@
         <v>1145612</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,13 +1647,13 @@
         <v>22975</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -1662,13 +1662,13 @@
         <v>24611</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -1677,13 +1677,13 @@
         <v>47586</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,7 +1739,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1751,13 +1751,13 @@
         <v>673715</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>1643</v>
@@ -1766,13 +1766,13 @@
         <v>992394</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>2635</v>
@@ -1781,13 +1781,13 @@
         <v>1666109</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,7 +1802,7 @@
         <v>22494</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>111</v>
@@ -1820,10 +1820,10 @@
         <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>99</v>
@@ -1832,13 +1832,13 @@
         <v>56737</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,7 +1903,7 @@
         <v>3185</v>
       </c>
       <c r="D22" s="7">
-        <v>3199804</v>
+        <v>3199803</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>118</v>
@@ -2005,7 +2005,7 @@
         <v>3364</v>
       </c>
       <c r="D24" s="7">
-        <v>3368025</v>
+        <v>3368024</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P36BPD01_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD01_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E4CEB5-2CE9-4412-90BB-2B3AFB01A26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E740A41-86C5-44E1-82C6-014599E75F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A076DE4-1BD7-49A8-8193-D0D47D477511}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1BC9F5C6-4036-472F-BD1F-8014A3DBF95E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="154">
   <si>
     <t>Población según si utilizan como principal grasa para cocinar el aceite de oliva en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -65,379 +65,436 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>35-44</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>55/64</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>55-64</t>
   </si>
   <si>
     <t>96,15%</t>
   </si>
   <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>95,87%</t>
   </si>
   <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -852,8 +909,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D06005E-18A0-4608-A0D3-D6CE8B6A48BF}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949CA5DB-9E5F-48D0-BD78-042B8EDF0B64}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -973,7 +1030,7 @@
         <v>157</v>
       </c>
       <c r="D4" s="7">
-        <v>343056</v>
+        <v>361454</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -988,7 +1045,7 @@
         <v>192</v>
       </c>
       <c r="I4" s="7">
-        <v>331618</v>
+        <v>292073</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1003,7 +1060,7 @@
         <v>349</v>
       </c>
       <c r="N4" s="7">
-        <v>674674</v>
+        <v>653527</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1024,7 +1081,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>28616</v>
+        <v>31150</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1039,7 +1096,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>20258</v>
+        <v>18379</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1054,7 +1111,7 @@
         <v>27</v>
       </c>
       <c r="N5" s="7">
-        <v>48874</v>
+        <v>49529</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1075,7 +1132,7 @@
         <v>170</v>
       </c>
       <c r="D6" s="7">
-        <v>371672</v>
+        <v>392604</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1090,7 +1147,7 @@
         <v>206</v>
       </c>
       <c r="I6" s="7">
-        <v>351876</v>
+        <v>310452</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1105,7 +1162,7 @@
         <v>376</v>
       </c>
       <c r="N6" s="7">
-        <v>723548</v>
+        <v>703056</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1128,7 +1185,7 @@
         <v>282</v>
       </c>
       <c r="D7" s="7">
-        <v>408768</v>
+        <v>403236</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1143,31 +1200,31 @@
         <v>425</v>
       </c>
       <c r="I7" s="7">
-        <v>470892</v>
+        <v>486477</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>707</v>
       </c>
       <c r="N7" s="7">
-        <v>879660</v>
+        <v>889714</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1179,46 +1236,46 @@
         <v>20</v>
       </c>
       <c r="D8" s="7">
-        <v>19628</v>
+        <v>20311</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
       </c>
       <c r="I8" s="7">
-        <v>25160</v>
+        <v>22769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>52</v>
       </c>
       <c r="N8" s="7">
-        <v>44788</v>
+        <v>43080</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1230,7 +1287,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1245,7 +1302,7 @@
         <v>457</v>
       </c>
       <c r="I9" s="7">
-        <v>496052</v>
+        <v>509246</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1260,7 +1317,7 @@
         <v>759</v>
       </c>
       <c r="N9" s="7">
-        <v>924448</v>
+        <v>932794</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1331,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1283,46 +1340,46 @@
         <v>498</v>
       </c>
       <c r="D10" s="7">
-        <v>516589</v>
+        <v>497249</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>794</v>
       </c>
       <c r="I10" s="7">
-        <v>547862</v>
+        <v>509013</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>1292</v>
       </c>
       <c r="N10" s="7">
-        <v>1064451</v>
+        <v>1006261</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1334,28 +1391,28 @@
         <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>37745</v>
+        <v>36182</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>35614</v>
+        <v>33455</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>63</v>
@@ -1364,7 +1421,7 @@
         <v>98</v>
       </c>
       <c r="N11" s="7">
-        <v>73359</v>
+        <v>69637</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1385,7 +1442,7 @@
         <v>544</v>
       </c>
       <c r="D12" s="7">
-        <v>554334</v>
+        <v>533431</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1400,7 +1457,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1415,7 +1472,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1137810</v>
+        <v>1075898</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1438,46 +1495,46 @@
         <v>622</v>
       </c>
       <c r="D13" s="7">
-        <v>683814</v>
+        <v>849462</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>1080</v>
       </c>
       <c r="I13" s="7">
-        <v>711971</v>
+        <v>679620</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>1702</v>
       </c>
       <c r="N13" s="7">
-        <v>1395785</v>
+        <v>1529082</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1489,43 +1546,43 @@
         <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>36763</v>
+        <v>35049</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
       </c>
       <c r="I14" s="7">
-        <v>34070</v>
+        <v>32190</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>99</v>
       </c>
       <c r="N14" s="7">
-        <v>70833</v>
+        <v>67239</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>83</v>
@@ -1540,7 +1597,7 @@
         <v>662</v>
       </c>
       <c r="D15" s="7">
-        <v>720577</v>
+        <v>884511</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1555,7 +1612,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746041</v>
+        <v>711810</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1570,7 +1627,7 @@
         <v>1801</v>
       </c>
       <c r="N15" s="7">
-        <v>1466618</v>
+        <v>1596321</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1593,7 +1650,7 @@
         <v>634</v>
       </c>
       <c r="D16" s="7">
-        <v>573861</v>
+        <v>536694</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>85</v>
@@ -1608,7 +1665,7 @@
         <v>959</v>
       </c>
       <c r="I16" s="7">
-        <v>571751</v>
+        <v>524250</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>88</v>
@@ -1623,7 +1680,7 @@
         <v>1593</v>
       </c>
       <c r="N16" s="7">
-        <v>1145612</v>
+        <v>1060944</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>91</v>
@@ -1644,7 +1701,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>22975</v>
+        <v>21462</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>94</v>
@@ -1659,7 +1716,7 @@
         <v>42</v>
       </c>
       <c r="I17" s="7">
-        <v>24611</v>
+        <v>22994</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>97</v>
@@ -1674,7 +1731,7 @@
         <v>68</v>
       </c>
       <c r="N17" s="7">
-        <v>47586</v>
+        <v>44456</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>100</v>
@@ -1695,7 +1752,7 @@
         <v>660</v>
       </c>
       <c r="D18" s="7">
-        <v>596836</v>
+        <v>558156</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1710,7 +1767,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>596362</v>
+        <v>547244</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1725,7 +1782,7 @@
         <v>1661</v>
       </c>
       <c r="N18" s="7">
-        <v>1193198</v>
+        <v>1105400</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1745,49 +1802,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>992</v>
+        <v>550</v>
       </c>
       <c r="D19" s="7">
-        <v>673715</v>
+        <v>356187</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
-        <v>1643</v>
+        <v>794</v>
       </c>
       <c r="I19" s="7">
-        <v>992394</v>
+        <v>592402</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
-        <v>2635</v>
+        <v>1344</v>
       </c>
       <c r="N19" s="7">
-        <v>1666109</v>
+        <v>948589</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,49 +1853,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D20" s="7">
-        <v>22494</v>
+        <v>11978</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I20" s="7">
-        <v>34243</v>
+        <v>15966</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="N20" s="7">
-        <v>56737</v>
+        <v>27944</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,10 +1904,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1026</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>696209</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1862,10 +1919,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1877,10 +1934,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2734</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1722846</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1894,55 +1951,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3185</v>
+        <v>442</v>
       </c>
       <c r="D22" s="7">
-        <v>3199803</v>
+        <v>272164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
-        <v>5093</v>
+        <v>849</v>
       </c>
       <c r="I22" s="7">
-        <v>3626488</v>
+        <v>409918</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
-        <v>8278</v>
+        <v>1291</v>
       </c>
       <c r="N22" s="7">
-        <v>6826291</v>
+        <v>682081</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,49 +2008,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="D23" s="7">
-        <v>168221</v>
+        <v>9129</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c r="I23" s="7">
-        <v>173956</v>
+        <v>15913</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
-        <v>443</v>
+        <v>46</v>
       </c>
       <c r="N23" s="7">
-        <v>342177</v>
+        <v>25043</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,63 +2059,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>456</v>
+      </c>
+      <c r="D24" s="7">
+        <v>281293</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707124</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>3185</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3276446</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="7">
+        <v>5093</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3493752</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" s="7">
+        <v>8278</v>
+      </c>
+      <c r="N25" s="7">
+        <v>6770198</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>179</v>
+      </c>
+      <c r="D26" s="7">
+        <v>165261</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="7">
+        <v>264</v>
+      </c>
+      <c r="I26" s="7">
+        <v>161667</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M26" s="7">
+        <v>443</v>
+      </c>
+      <c r="N26" s="7">
+        <v>326928</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3364</v>
       </c>
-      <c r="D24" s="7">
-        <v>3368024</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3441707</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5357</v>
       </c>
-      <c r="I24" s="7">
-        <v>3800444</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3655419</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8721</v>
       </c>
-      <c r="N24" s="7">
-        <v>7168468</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>134</v>
+      <c r="N27" s="7">
+        <v>7097126</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
